--- a/TF_DataMapping/EVENT.xlsx
+++ b/TF_DataMapping/EVENT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TF_DataMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\TF_DataMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E49EE-039F-4606-9293-4E1D669DC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE9EA4-EF27-41DD-AE46-A0F523842BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>KEY97</t>
   </si>
   <si>
-    <t>event prefix</t>
-  </si>
-  <si>
     <t>REFNO_PFIX</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>finish time</t>
   </si>
   <si>
-    <t>refere to exempl30</t>
-  </si>
-  <si>
     <t>currency(refere to C8PF)</t>
   </si>
   <si>
@@ -189,18 +183,12 @@
     <t>Null(refere to MASTER)</t>
   </si>
   <si>
-    <t>(refere to OFAC)</t>
-  </si>
-  <si>
     <t>posting work group(refere to WorKGR44)</t>
   </si>
   <si>
     <t>(refere to BatchP97)</t>
   </si>
   <si>
-    <t>set FX rate or not</t>
-  </si>
-  <si>
     <t>NULL(refere to BASEEVENT)</t>
   </si>
   <si>
@@ -217,6 +205,54 @@
   </si>
   <si>
     <t>TSTAMP</t>
+  </si>
+  <si>
+    <t>event prefix(ISS, ADV..)</t>
+  </si>
+  <si>
+    <t>serial number of this event under the master event</t>
+  </si>
+  <si>
+    <t>A, P, C(completed, aborted, pended)</t>
+  </si>
+  <si>
+    <t>input, complete..</t>
+  </si>
+  <si>
+    <t>event type(refere to exempl30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each event may relate to specific reference,for iss(applicant reference). </t>
+  </si>
+  <si>
+    <t>event amount</t>
+  </si>
+  <si>
+    <t>payment action (approval not reqd, approve with request, pay with financing..)</t>
+  </si>
+  <si>
+    <t>originating ref</t>
+  </si>
+  <si>
+    <t>NULL (refere to OFAC)</t>
+  </si>
+  <si>
+    <t>event index, except for the aborted and pended events.</t>
+  </si>
+  <si>
+    <t>event priority (1,2,3)</t>
+  </si>
+  <si>
+    <t>always NO, set FX rate or not(Y or N)</t>
+  </si>
+  <si>
+    <t>always NO(y or N)</t>
+  </si>
+  <si>
+    <t>Y or N</t>
+  </si>
+  <si>
+    <t>swift released once, Y or N, always no.</t>
   </si>
 </sst>
 </file>
@@ -536,14 +572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,273 +587,315 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
